--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -623,7 +618,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,7 +631,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,16 +654,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,23 +671,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -700,10 +701,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -741,69 +742,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -827,54 +830,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -884,7 +886,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -893,7 +895,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -902,7 +904,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -910,10 +912,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -942,7 +944,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -955,13 +957,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -980,15 +981,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,719 +1034,791 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I19" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I23" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I24" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I26" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I27" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I28" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I29" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I30" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Professor &amp; Head</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-01-102.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-01-102.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=CXHND6AAAAAJ&amp;hl=en</t>
@@ -80,7 +80,7 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-02-089.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-02-089.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?pli=1&amp;authuser=1&amp;user=g2kv1R8AAAAJ</t>
@@ -110,7 +110,7 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-03-058.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-03-058.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=TQRD7pAAAAAJ&amp;hl=en</t>
@@ -131,7 +131,7 @@
     <t>THILAGAM</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-03-041.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-03-041.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=Ex8vx68AAAAJ&amp;hl=en&amp;oi=ao</t>
@@ -155,7 +155,7 @@
     <t>Dr.MURUKESH</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-03-052.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-03-052.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=i1oq6kYAAAAJ&amp;hl=en</t>
@@ -167,7 +167,7 @@
     <t>https://orcid.org/0000-0002-0034-9400</t>
   </si>
   <si>
-    <t>Nil</t>
+    <t/>
   </si>
   <si>
     <t>https://www.scopus.com/authid/detail.uri?authorId=52663908300</t>
@@ -185,7 +185,7 @@
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-021.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-021.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=yc195xQAAAAJ</t>
@@ -197,10 +197,7 @@
     <t>https://orcid.org/0000-0002-7090-8191</t>
   </si>
   <si>
-    <t>57218713862</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/ponnrajakumari-m-137331204</t>
+    <t>www.linkedin.com/in/ponnrajakumari-m-137331204/</t>
   </si>
   <si>
     <t>VEC-009-04-021</t>
@@ -209,7 +206,7 @@
     <t>Dr.K.Lavanya</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-029.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-029.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=4HwDVuQAAAAJ&amp;hl=en</t>
@@ -227,7 +224,7 @@
     <t>SARAVANAN</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-031.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-031.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=ZamITy0AAAAJ&amp;hl=en</t>
@@ -242,7 +239,7 @@
     <t xml:space="preserve">SUMATHI </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-005.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-005.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=qANCqqMAAAAJ</t>
@@ -263,7 +260,7 @@
     <t>MAGESH</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-007.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-007.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=XwbeC78AAAAJ</t>
@@ -290,7 +287,7 @@
     <t xml:space="preserve">GANGADURAI </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-017.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-017.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en?authuser%3D1&amp;pli=1&amp;authuser=1&amp;user=3XHtIicAAAAJ</t>
@@ -317,7 +314,7 @@
     <t xml:space="preserve"> SHANKARI</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-030.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-030.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=ZANpcT4AAAAJ&amp;hl=en</t>
@@ -332,7 +329,7 @@
     <t>Theivanathan</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-025.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-025.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;authuser=1&amp;gmla=ALUCkoU11Z1fnX51BjvvxlMwyUylGiSF_Tg9_9YvcLKw367xHoUX2NhcfJzNYtsJY-uX9DA-EU0GNvsnhOXdFxdcB7dMUnzzmjZ9ZhdUjG4I&amp;user=lqyzpJIAAAAJ</t>
@@ -365,7 +362,7 @@
     <t xml:space="preserve"> SUBRAMANIAN</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-016.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-016.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=kxLxY_YAAAAJ</t>
@@ -389,7 +386,7 @@
     <t xml:space="preserve">RADHAKRISHNAN </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-026.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-026.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=1UxyHg8AAAAJ&amp;hl=en&amp;authuser=3</t>
@@ -407,7 +404,7 @@
     <t xml:space="preserve">GNANA ARUN JOHNSON </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-038.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-038.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=o785XJ0AAAAJ&amp;hl=en</t>
@@ -428,7 +425,7 @@
     <t>DEEPA</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-019.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-019.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=BMRAkukAAAAJ&amp;hl=en</t>
@@ -443,7 +440,7 @@
     <t>SARU PRIYA</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-054.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-054.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?hl=en&amp;authuser=1&amp;user=XdH2PQwAAAAJ</t>
@@ -467,7 +464,7 @@
     <t>DOLLY IRENE</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-023.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-023.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=0LDFS7wAAAAJ&amp;hl=en</t>
@@ -497,7 +494,7 @@
     <t xml:space="preserve">BHARATHIPRIYA </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-013.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-013.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?hl=en&amp;user=lln7rF0AAAAJ</t>
@@ -512,7 +509,7 @@
     <t>Kavitha</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-032.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-032.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=TCHy_9UAAAAJ</t>
@@ -527,7 +524,7 @@
     <t>Dr.S.MANJU</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-012.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-012.webp</t>
   </si>
   <si>
     <t>https://tinyurl.com/bdh7f6pe</t>
@@ -555,7 +552,10 @@
     <t>Seshaiah</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-135.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-135.webp</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
   <si>
     <t>VEC-009-04-135</t>
@@ -564,7 +564,7 @@
     <t xml:space="preserve">SUJATHA </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-014.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-014.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en</t>
@@ -579,7 +579,7 @@
     <t>NANDHINI</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-015.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-015.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoVGmdzJc5l1Vus0FIw_pVKAkTlgAfdY--_5n-NpK1AJWAclNmmYp88ZW_5-rK9TfBS5UXM9f6N9K7ig93anRx5d&amp;user=mbV23owAAAAJ</t>
@@ -594,16 +594,13 @@
     <t xml:space="preserve">Shankari </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-033.jpg</t>
+    <t>/static/images/profile_photos/009/VEC-009-04-033.webp</t>
   </si>
   <si>
     <t>VEC-009-04-033</t>
   </si>
   <si>
     <t>P RENUKA</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-009.jpg</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=xj_Q2HUAAAAJ</t>
@@ -631,7 +628,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -671,12 +668,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -990,19 +990,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="59.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1206,223 +1206,223 @@
         <v>59</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1434,181 +1434,181 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1620,103 +1620,103 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>180</v>
@@ -1781,14 +1781,14 @@
         <v>192</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>193</v>
@@ -1801,21 +1801,19 @@
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D8A48-E870-4285-AB6B-8FE9F449A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -74,9 +91,6 @@
     <t>VEC-009-01-102</t>
   </si>
   <si>
-    <t>LEENA JASMINE</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -104,9 +118,6 @@
     <t>VEC-009-02-089</t>
   </si>
   <si>
-    <t>GRACE SHOBA</t>
-  </si>
-  <si>
     <t>Associate Professor</t>
   </si>
   <si>
@@ -128,9 +139,6 @@
     <t>VEC-009-03-058</t>
   </si>
   <si>
-    <t>THILAGAM</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-03-041.webp</t>
   </si>
   <si>
@@ -152,9 +160,6 @@
     <t>VEC-009-03-041</t>
   </si>
   <si>
-    <t>Dr.MURUKESH</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-03-052.webp</t>
   </si>
   <si>
@@ -179,9 +184,6 @@
     <t>VEC-009-03-052</t>
   </si>
   <si>
-    <t>PONNRAJAKUMARI</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -203,9 +205,6 @@
     <t>VEC-009-04-021</t>
   </si>
   <si>
-    <t>Dr.K.Lavanya</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-029.webp</t>
   </si>
   <si>
@@ -221,9 +220,6 @@
     <t>VEC-009-04-029</t>
   </si>
   <si>
-    <t>SARAVANAN</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-031.webp</t>
   </si>
   <si>
@@ -236,9 +232,6 @@
     <t>VEC-009-04-031</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMATHI </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-005.webp</t>
   </si>
   <si>
@@ -257,9 +250,6 @@
     <t>VEC-009-04-005</t>
   </si>
   <si>
-    <t>MAGESH</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-007.webp</t>
   </si>
   <si>
@@ -284,9 +274,6 @@
     <t>VEC-009-04-007</t>
   </si>
   <si>
-    <t xml:space="preserve">GANGADURAI </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-017.webp</t>
   </si>
   <si>
@@ -311,9 +298,6 @@
     <t>VEC-009-04-017</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHANKARI</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-030.webp</t>
   </si>
   <si>
@@ -326,9 +310,6 @@
     <t>VEC-009-04-030</t>
   </si>
   <si>
-    <t>Theivanathan</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-025.webp</t>
   </si>
   <si>
@@ -353,15 +334,6 @@
     <t>VEC-009-04-025</t>
   </si>
   <si>
-    <t>sandhya</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/009/nan.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SUBRAMANIAN</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-016.webp</t>
   </si>
   <si>
@@ -383,9 +355,6 @@
     <t>VEC-009-04-016</t>
   </si>
   <si>
-    <t xml:space="preserve">RADHAKRISHNAN </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-026.webp</t>
   </si>
   <si>
@@ -422,9 +391,6 @@
     <t>VEC-009-04-038</t>
   </si>
   <si>
-    <t>DEEPA</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-019.webp</t>
   </si>
   <si>
@@ -437,9 +403,6 @@
     <t>VEC-009-04-019</t>
   </si>
   <si>
-    <t>SARU PRIYA</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-054.webp</t>
   </si>
   <si>
@@ -461,9 +424,6 @@
     <t>VEC-009-04-054</t>
   </si>
   <si>
-    <t>DOLLY IRENE</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-023.webp</t>
   </si>
   <si>
@@ -488,12 +448,6 @@
     <t>VEC-009-04-023</t>
   </si>
   <si>
-    <t>kalaimathi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHARATHIPRIYA </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-013.webp</t>
   </si>
   <si>
@@ -506,9 +460,6 @@
     <t>VEC-009-04-013</t>
   </si>
   <si>
-    <t>Kavitha</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-032.webp</t>
   </si>
   <si>
@@ -519,9 +470,6 @@
   </si>
   <si>
     <t>VEC-009-04-032</t>
-  </si>
-  <si>
-    <t>Dr.S.MANJU</t>
   </si>
   <si>
     <t>/static/images/profile_photos/009/VEC-009-04-012.webp</t>
@@ -549,9 +497,6 @@
     <t>VEC-009-04-012</t>
   </si>
   <si>
-    <t>Seshaiah</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-135.webp</t>
   </si>
   <si>
@@ -561,9 +506,6 @@
     <t>VEC-009-04-135</t>
   </si>
   <si>
-    <t xml:space="preserve">SUJATHA </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-014.webp</t>
   </si>
   <si>
@@ -576,9 +518,6 @@
     <t>VEC-009-04-014</t>
   </si>
   <si>
-    <t>NANDHINI</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-015.webp</t>
   </si>
   <si>
@@ -591,18 +530,12 @@
     <t>VEC-009-04-015</t>
   </si>
   <si>
-    <t xml:space="preserve">Shankari </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-033.webp</t>
   </si>
   <si>
     <t>VEC-009-04-033</t>
   </si>
   <si>
-    <t>P RENUKA</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=xj_Q2HUAAAAJ</t>
   </si>
   <si>
@@ -610,14 +543,100 @@
   </si>
   <si>
     <t>VEC-009-04-009</t>
+  </si>
+  <si>
+    <t>Dr. LAVANAYA K</t>
+  </si>
+  <si>
+    <t>Dr. MANJU S</t>
+  </si>
+  <si>
+    <t>RENUKA P</t>
+  </si>
+  <si>
+    <t>VEC-009-04-563</t>
+  </si>
+  <si>
+    <t>Dr. MURUKESH C</t>
+  </si>
+  <si>
+    <t>THILAGAM K</t>
+  </si>
+  <si>
+    <t>PONNRAJAKUMARI M</t>
+  </si>
+  <si>
+    <t>SARAVANAN V</t>
+  </si>
+  <si>
+    <t>SUMATHI S</t>
+  </si>
+  <si>
+    <t>MAGESH V</t>
+  </si>
+  <si>
+    <t>GANGADURAI E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHANKARI R</t>
+  </si>
+  <si>
+    <t>SANDHYA S</t>
+  </si>
+  <si>
+    <t>THEIVANATHAN G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBRAMANIAN G</t>
+  </si>
+  <si>
+    <t>SHANKARI R</t>
+  </si>
+  <si>
+    <t>NANDHINI M</t>
+  </si>
+  <si>
+    <t>SUJATHA R</t>
+  </si>
+  <si>
+    <t>SESHAIAH M A</t>
+  </si>
+  <si>
+    <t>KAVITHA S</t>
+  </si>
+  <si>
+    <t>RADHAKRISHNAN K</t>
+  </si>
+  <si>
+    <t>DEEPA N</t>
+  </si>
+  <si>
+    <t>SARUPRIYA S</t>
+  </si>
+  <si>
+    <t>DOLLY IRENE J</t>
+  </si>
+  <si>
+    <t>BHARATHI PRIYA  L</t>
+  </si>
+  <si>
+    <t>LEENA JASMINE J S</t>
+  </si>
+  <si>
+    <t>GRACE SHOBA S J</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-009.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-563.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +650,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -665,32 +696,261 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5ADBF6E8-5ED0-4F8E-B950-68BDC8169CA1}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -701,10 +961,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -742,71 +1002,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -834,7 +1094,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -857,11 +1117,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -870,13 +1130,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -886,7 +1146,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -895,7 +1155,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -904,7 +1164,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -912,10 +1172,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -980,29 +1240,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="59.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,789 +1292,747 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="J7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="J10" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="I11" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I12" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J12" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="J13" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="E14" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="F14" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+      <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="J14" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="E16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
+      <c r="F16" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="G16" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="I16" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="D17" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="F17" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I17" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F18" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="I18" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="J18" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="D19" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2" t="s">
+      <c r="J19" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D20" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E20" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="H20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+      <c r="I20" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="J20" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D21" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E21" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="F21" t="s">
         <v>133</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="G21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
+      <c r="H21" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="I21" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="J21" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="D22" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2" t="s">
+      <c r="I22" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="J22" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="I23" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="J23" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="2" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="D24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
+      <c r="E24" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="F24" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="G24" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="H24" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="I24" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="J24" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="2" t="s">
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="D25" t="s">
         <v>155</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="I25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
+      <c r="D26" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="I26" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="J26" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>161</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="D27" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
+      <c r="I27" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="J27" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="2" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
+      <c r="I29" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="J29" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>197</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D8A48-E870-4285-AB6B-8FE9F449A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -61,9 +60,6 @@
   </si>
   <si>
     <t>unique_id</t>
-  </si>
-  <si>
-    <t>Dr. MARY JOANS</t>
   </si>
   <si>
     <t>Professor &amp; Head</t>
@@ -121,24 +117,6 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-03-058.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/citations?user=TQRD7pAAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Grace-S-J</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0009-0007-1056-5565</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/grace-shoba-453057204/</t>
-  </si>
-  <si>
-    <t>VEC-009-03-058</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-03-041.webp</t>
   </si>
   <si>
@@ -298,18 +276,12 @@
     <t>VEC-009-04-017</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-030.webp</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?user=ZANpcT4AAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/shankari-raja-89174945?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
   <si>
-    <t>VEC-009-04-030</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-025.webp</t>
   </si>
   <si>
@@ -470,9 +442,6 @@
   </si>
   <si>
     <t>VEC-009-04-032</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-012.webp</t>
   </si>
   <si>
     <t>https://tinyurl.com/bdh7f6pe</t>
@@ -494,9 +463,6 @@
     <t>www.linkedin.com/in/manjus-pradeep-2b8a66279</t>
   </si>
   <si>
-    <t>VEC-009-04-012</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-135.webp</t>
   </si>
   <si>
@@ -554,9 +520,6 @@
     <t>RENUKA P</t>
   </si>
   <si>
-    <t>VEC-009-04-563</t>
-  </si>
-  <si>
     <t>Dr. MURUKESH C</t>
   </si>
   <si>
@@ -578,12 +541,6 @@
     <t>GANGADURAI E</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHANKARI R</t>
-  </si>
-  <si>
-    <t>SANDHYA S</t>
-  </si>
-  <si>
     <t>THEIVANATHAN G</t>
   </si>
   <si>
@@ -623,20 +580,23 @@
     <t>LEENA JASMINE J S</t>
   </si>
   <si>
-    <t>GRACE SHOBA S J</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-009.webp</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-563.webp</t>
+    <t>Dr. MARY JOANS S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-03-012.webp</t>
+  </si>
+  <si>
+    <t>VEC-009-03-012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +619,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -696,21 +664,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5ADBF6E8-5ED0-4F8E-B950-68BDC8169CA1}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1240,14 +1211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,745 +1265,688 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
+      </c>
+      <c r="G6" t="s">
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
         <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I15" t="s">
         <v>89</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J15" t="s">
         <v>90</v>
       </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="J14" t="s">
+      <c r="D16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
         <v>102</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>103</v>
       </c>
-      <c r="G16" t="s">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="I16" t="s">
+      <c r="D17" t="s">
         <v>105</v>
       </c>
-      <c r="J16" t="s">
+      <c r="E17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
         <v>109</v>
       </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>112</v>
+      <c r="A18" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
+      <c r="J19" t="s">
         <v>120</v>
-      </c>
-      <c r="I19" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J23" t="s">
         <v>132</v>
       </c>
-      <c r="F21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
+      <c r="D24" t="s">
         <v>144</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" t="s">
-        <v>152</v>
-      </c>
-      <c r="J24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="I26" t="s">
         <v>157</v>
       </c>
-      <c r="D26" t="s">
+      <c r="J26" t="s">
         <v>158</v>
       </c>
-      <c r="I26" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" t="s">
-        <v>169</v>
-      </c>
-    </row>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A25">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A22">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A21">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A16">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="A20">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="A19">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I23" r:id="rId1"/>
+    <hyperlink ref="D23" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -420,18 +420,6 @@
     <t>VEC-009-04-023</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-013.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/citations?hl=en&amp;user=lln7rF0AAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/bharathipriya-a-04846229a</t>
-  </si>
-  <si>
-    <t>VEC-009-04-013</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-032.webp</t>
   </si>
   <si>
@@ -572,9 +560,6 @@
   </si>
   <si>
     <t>DOLLY IRENE J</t>
-  </si>
-  <si>
-    <t>BHARATHI PRIYA  L</t>
   </si>
   <si>
     <t>LEENA JASMINE J S</t>
@@ -596,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,14 +604,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -664,49 +641,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -1215,10 +1166,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1216,7 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1294,7 +1245,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1326,7 +1277,7 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1358,7 +1309,7 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1387,39 +1338,39 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>138</v>
       </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" t="s">
-        <v>142</v>
-      </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1442,7 +1393,7 @@
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1471,7 +1422,7 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1491,7 +1442,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1520,7 +1471,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1552,7 +1503,7 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -1584,7 +1535,7 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -1613,13 +1564,13 @@
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -1628,12 +1579,12 @@
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1665,7 +1616,7 @@
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1714,7 +1665,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1746,7 +1697,7 @@
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1775,7 +1726,7 @@
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -1795,137 +1746,117 @@
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>180</v>
+      <c r="A23" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>172</v>
+      <c r="A25" t="s">
+        <v>157</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A23">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
@@ -1943,10 +1874,6 @@
   <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="I23" r:id="rId1"/>
-    <hyperlink ref="D23" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A7217-835F-4060-BBE7-920245151730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
   <si>
     <t>Name</t>
   </si>
@@ -575,12 +565,75 @@
   </si>
   <si>
     <t>VEC-009-03-012</t>
+  </si>
+  <si>
+    <t>SUGANTHI AMUDHAN DR</t>
+  </si>
+  <si>
+    <t>ARUL THILAGAVATHI M</t>
+  </si>
+  <si>
+    <t>PRAVEENA V</t>
+  </si>
+  <si>
+    <t>SUSANNA P</t>
+  </si>
+  <si>
+    <t>VINODHINI R DR</t>
+  </si>
+  <si>
+    <t>RAMYA T</t>
+  </si>
+  <si>
+    <t>MANIMEGALAI M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-653.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-654.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-655.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-656.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-657.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-658.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-659.webp</t>
+  </si>
+  <si>
+    <t>VEC-009-04-653</t>
+  </si>
+  <si>
+    <t>VEC-009-04-654</t>
+  </si>
+  <si>
+    <t>VEC-009-04-655</t>
+  </si>
+  <si>
+    <t>VEC-009-04-656</t>
+  </si>
+  <si>
+    <t>VEC-009-04-657</t>
+  </si>
+  <si>
+    <t>VEC-009-04-658</t>
+  </si>
+  <si>
+    <t>VEC-009-04-659</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,17 +698,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1162,14 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1844,35 +1898,131 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A7217-835F-4060-BBE7-920245151730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347B62E-B003-46D6-94CF-037BAF8E9ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -628,13 +628,34 @@
   </si>
   <si>
     <t>VEC-009-04-659</t>
+  </si>
+  <si>
+    <t>DHANALAKSHMI G</t>
+  </si>
+  <si>
+    <t>SUBRAMANIAN N</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-05-4.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-05-5.webp</t>
+  </si>
+  <si>
+    <t>VEC-009-05-5</t>
+  </si>
+  <si>
+    <t>VEC-009-05-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +682,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -670,7 +698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -693,19 +721,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,10 +1264,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,7 +1943,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>181</v>
       </c>
       <c r="B26" t="s">
@@ -1913,7 +1957,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>182</v>
       </c>
       <c r="B27" t="s">
@@ -1927,7 +1971,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>183</v>
       </c>
       <c r="B28" t="s">
@@ -1941,7 +1985,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>184</v>
       </c>
       <c r="B29" t="s">
@@ -1955,7 +1999,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>185</v>
       </c>
       <c r="B30" t="s">
@@ -1969,7 +2013,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>186</v>
       </c>
       <c r="B31" t="s">
@@ -1983,7 +2027,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>187</v>
       </c>
       <c r="B32" t="s">
@@ -1994,6 +2038,34 @@
       </c>
       <c r="J32" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347B62E-B003-46D6-94CF-037BAF8E9ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C321B-2FAE-4246-90B7-C3545989155E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,16 +639,16 @@
     <t>Lab Instructor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-05-4.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/009/VEC-009-05-5.webp</t>
-  </si>
-  <si>
-    <t>VEC-009-05-5</t>
-  </si>
-  <si>
-    <t>VEC-009-05-4</t>
+    <t>/static/images/profile_photos/009/VEC-009-05-004.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-05-005.webp</t>
+  </si>
+  <si>
+    <t>VEC-009-05-005</t>
+  </si>
+  <si>
+    <t>VEC-009-05-004</t>
   </si>
 </sst>
 </file>
@@ -1266,8 +1266,8 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" activeCellId="1" sqref="K1 K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,10 +2048,10 @@
         <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2062,10 +2062,10 @@
         <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C321B-2FAE-4246-90B7-C3545989155E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D63484-712B-41CD-9167-E52BE1806C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>VEC-009-04-026</t>
   </si>
   <si>
-    <t xml:space="preserve">GNANA ARUN JOHNSON </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-038.webp</t>
   </si>
   <si>
@@ -495,66 +492,9 @@
     <t>Dr. MANJU S</t>
   </si>
   <si>
-    <t>RENUKA P</t>
-  </si>
-  <si>
     <t>Dr. MURUKESH C</t>
   </si>
   <si>
-    <t>THILAGAM K</t>
-  </si>
-  <si>
-    <t>PONNRAJAKUMARI M</t>
-  </si>
-  <si>
-    <t>SARAVANAN V</t>
-  </si>
-  <si>
-    <t>SUMATHI S</t>
-  </si>
-  <si>
-    <t>MAGESH V</t>
-  </si>
-  <si>
-    <t>GANGADURAI E</t>
-  </si>
-  <si>
-    <t>THEIVANATHAN G</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SUBRAMANIAN G</t>
-  </si>
-  <si>
-    <t>SHANKARI R</t>
-  </si>
-  <si>
-    <t>NANDHINI M</t>
-  </si>
-  <si>
-    <t>SUJATHA R</t>
-  </si>
-  <si>
-    <t>SESHAIAH M A</t>
-  </si>
-  <si>
-    <t>KAVITHA S</t>
-  </si>
-  <si>
-    <t>RADHAKRISHNAN K</t>
-  </si>
-  <si>
-    <t>DEEPA N</t>
-  </si>
-  <si>
-    <t>SARUPRIYA S</t>
-  </si>
-  <si>
-    <t>DOLLY IRENE J</t>
-  </si>
-  <si>
-    <t>LEENA JASMINE J S</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-009.webp</t>
   </si>
   <si>
@@ -567,27 +507,6 @@
     <t>VEC-009-03-012</t>
   </si>
   <si>
-    <t>SUGANTHI AMUDHAN DR</t>
-  </si>
-  <si>
-    <t>ARUL THILAGAVATHI M</t>
-  </si>
-  <si>
-    <t>PRAVEENA V</t>
-  </si>
-  <si>
-    <t>SUSANNA P</t>
-  </si>
-  <si>
-    <t>VINODHINI R DR</t>
-  </si>
-  <si>
-    <t>RAMYA T</t>
-  </si>
-  <si>
-    <t>MANIMEGALAI M</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-653.webp</t>
   </si>
   <si>
@@ -630,12 +549,6 @@
     <t>VEC-009-04-659</t>
   </si>
   <si>
-    <t>DHANALAKSHMI G</t>
-  </si>
-  <si>
-    <t>SUBRAMANIAN N</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -649,6 +562,93 @@
   </si>
   <si>
     <t>VEC-009-05-004</t>
+  </si>
+  <si>
+    <t>Mrs. LEENA JASMINE J S</t>
+  </si>
+  <si>
+    <t>Mrs. PONNRAJAKUMARI M</t>
+  </si>
+  <si>
+    <t>Mr. SARAVANAN V</t>
+  </si>
+  <si>
+    <t>Mrs. SUMATHI S</t>
+  </si>
+  <si>
+    <t>Mr. MAGESH V</t>
+  </si>
+  <si>
+    <t>Mrs. THILAGAM K</t>
+  </si>
+  <si>
+    <t>Mr. GANGADURAI E</t>
+  </si>
+  <si>
+    <t>MR. SUBRAMANIAN G</t>
+  </si>
+  <si>
+    <t>Mrs. SHANKARI R</t>
+  </si>
+  <si>
+    <t>Mr. THEIVANATHAN G</t>
+  </si>
+  <si>
+    <t>Mr. RADHAKRISHNAN K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. GNANA ARUN JOHNSON </t>
+  </si>
+  <si>
+    <t>Mrs. DOLLY IRENE J</t>
+  </si>
+  <si>
+    <t>Mrs. SARUPRIYA S</t>
+  </si>
+  <si>
+    <t>Mrs. DEEPA N</t>
+  </si>
+  <si>
+    <t>Mrs. KAVITHA S</t>
+  </si>
+  <si>
+    <t>Mrs. SUJATHA R</t>
+  </si>
+  <si>
+    <t>Mr. SESHAIAH M A</t>
+  </si>
+  <si>
+    <t>Mrs. NANDHINI M</t>
+  </si>
+  <si>
+    <t>Mrs. RENUKA P</t>
+  </si>
+  <si>
+    <t>Mrs. SUGANTHI AMUDHAN DR</t>
+  </si>
+  <si>
+    <t>Mrs. ARUL THILAGAVATHI M</t>
+  </si>
+  <si>
+    <t>Mrs. PRAVEENA V</t>
+  </si>
+  <si>
+    <t>Mrs. SUSANNA P</t>
+  </si>
+  <si>
+    <t>Mrs. VINODHINI R DR</t>
+  </si>
+  <si>
+    <t>Mrs. RAMYA T</t>
+  </si>
+  <si>
+    <t>Mrs. MANIMEGALAI M</t>
+  </si>
+  <si>
+    <t>Mrs. DHANALAKSHMI G</t>
+  </si>
+  <si>
+    <t>Mr. SUBRAMANIAN N</t>
   </si>
 </sst>
 </file>
@@ -1266,8 +1266,8 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="1" sqref="K1 K7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1436,39 +1436,39 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
         <v>133</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>134</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>135</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>136</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>137</v>
       </c>
-      <c r="I6" t="s">
-        <v>138</v>
-      </c>
       <c r="J6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -1677,12 +1677,12 @@
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1737,335 +1737,335 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>105</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>108</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>125</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>126</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>127</v>
-      </c>
-      <c r="J18" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
         <v>114</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>116</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>117</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>118</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>119</v>
-      </c>
-      <c r="J19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
         <v>111</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>112</v>
-      </c>
-      <c r="J20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
         <v>129</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
         <v>130</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>131</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
         <v>142</v>
       </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
         <v>143</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>144</v>
-      </c>
-      <c r="J22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
         <v>139</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
         <v>140</v>
-      </c>
-      <c r="I23" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
         <v>146</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
         <v>147</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>148</v>
-      </c>
-      <c r="J24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
         <v>157</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>177</v>
-      </c>
       <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" t="s">
         <v>152</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>153</v>
-      </c>
-      <c r="J25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="J28" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D63484-712B-41CD-9167-E52BE1806C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F29788-1428-423C-BF0E-A776E90A3812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15240" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -266,12 +266,6 @@
     <t>VEC-009-04-017</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?user=ZANpcT4AAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shankari-raja-89174945?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/009/VEC-009-04-025.webp</t>
   </si>
   <si>
@@ -330,24 +324,6 @@
   </si>
   <si>
     <t>VEC-009-04-026</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-038.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/citations?user=o785XJ0AAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Gnana-Jayaraj</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0000-0003-4737-5806</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gnana-arun-johnson-8a4b9580/</t>
-  </si>
-  <si>
-    <t>VEC-009-04-038</t>
   </si>
   <si>
     <t>/static/images/profile_photos/009/VEC-009-04-019.webp</t>
@@ -471,12 +447,6 @@
     <t>VEC-009-04-015</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/009/VEC-009-04-033.webp</t>
-  </si>
-  <si>
-    <t>VEC-009-04-033</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=xj_Q2HUAAAAJ</t>
   </si>
   <si>
@@ -486,9 +456,6 @@
     <t>VEC-009-04-009</t>
   </si>
   <si>
-    <t>Dr. LAVANAYA K</t>
-  </si>
-  <si>
     <t>Dr. MANJU S</t>
   </si>
   <si>
@@ -564,51 +531,27 @@
     <t>VEC-009-05-004</t>
   </si>
   <si>
-    <t>Mrs. LEENA JASMINE J S</t>
-  </si>
-  <si>
-    <t>Mrs. PONNRAJAKUMARI M</t>
-  </si>
-  <si>
     <t>Mr. SARAVANAN V</t>
   </si>
   <si>
     <t>Mrs. SUMATHI S</t>
   </si>
   <si>
-    <t>Mr. MAGESH V</t>
-  </si>
-  <si>
-    <t>Mrs. THILAGAM K</t>
-  </si>
-  <si>
     <t>Mr. GANGADURAI E</t>
   </si>
   <si>
-    <t>MR. SUBRAMANIAN G</t>
-  </si>
-  <si>
-    <t>Mrs. SHANKARI R</t>
-  </si>
-  <si>
     <t>Mr. THEIVANATHAN G</t>
   </si>
   <si>
     <t>Mr. RADHAKRISHNAN K</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. GNANA ARUN JOHNSON </t>
-  </si>
-  <si>
     <t>Mrs. DOLLY IRENE J</t>
   </si>
   <si>
     <t>Mrs. SARUPRIYA S</t>
   </si>
   <si>
-    <t>Mrs. DEEPA N</t>
-  </si>
-  <si>
     <t>Mrs. KAVITHA S</t>
   </si>
   <si>
@@ -624,9 +567,6 @@
     <t>Mrs. RENUKA P</t>
   </si>
   <si>
-    <t>Mrs. SUGANTHI AMUDHAN DR</t>
-  </si>
-  <si>
     <t>Mrs. ARUL THILAGAVATHI M</t>
   </si>
   <si>
@@ -636,9 +576,6 @@
     <t>Mrs. SUSANNA P</t>
   </si>
   <si>
-    <t>Mrs. VINODHINI R DR</t>
-  </si>
-  <si>
     <t>Mrs. RAMYA T</t>
   </si>
   <si>
@@ -649,6 +586,42 @@
   </si>
   <si>
     <t>Mr. SUBRAMANIAN N</t>
+  </si>
+  <si>
+    <t>Dr. LEENA JASMINE J S</t>
+  </si>
+  <si>
+    <t>Dr. THILAGAM K</t>
+  </si>
+  <si>
+    <t>Dr. PONNRAJAKUMARI M</t>
+  </si>
+  <si>
+    <t>Mr. SUBRAMANIAN G</t>
+  </si>
+  <si>
+    <t>Dr. DEEPA N</t>
+  </si>
+  <si>
+    <t>Dr. LAVANYA K</t>
+  </si>
+  <si>
+    <t>Dr. MAGESH V</t>
+  </si>
+  <si>
+    <t>Dr. SUGANTHI S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. VINODHINI R </t>
+  </si>
+  <si>
+    <t>Mrs. SANDHYA S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-04-675.webp</t>
+  </si>
+  <si>
+    <t>VEC-009-04-675</t>
   </si>
 </sst>
 </file>
@@ -741,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,35 +723,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1264,10 +1215,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,7 +1226,9 @@
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="51.21875" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1314,7 +1267,7 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1343,7 +1296,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1375,7 +1328,7 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1407,7 +1360,7 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1436,464 +1389,452 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>186</v>
+      <c r="A12" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F14" t="s">
         <v>92</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G14" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I14" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J14" t="s">
         <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>87</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>88</v>
       </c>
-      <c r="I15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>190</v>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I17" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J17" t="s">
         <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
         <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
       </c>
       <c r="I23" t="s">
         <v>139</v>
@@ -1903,197 +1844,174 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>198</v>
+      <c r="A24" t="s">
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" t="s">
         <v>157</v>
-      </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" t="s">
         <v>161</v>
-      </c>
-      <c r="J26" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" t="s">
         <v>162</v>
-      </c>
-      <c r="J27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" t="s">
         <v>163</v>
       </c>
-      <c r="J28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
         <v>165</v>
       </c>
-      <c r="J30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>166</v>
-      </c>
-      <c r="J31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
       <c r="J32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
-      </c>
-      <c r="J34" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="A19">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A20">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A21">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A23">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/009.xlsx
+++ b/docs/STAFF-DATA/009.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F29788-1428-423C-BF0E-A776E90A3812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15240" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -622,12 +621,21 @@
   </si>
   <si>
     <t>VEC-009-04-675</t>
+  </si>
+  <si>
+    <t>Mrs. RAJESWARI T</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/009/VEC-009-05-006.webp</t>
+  </si>
+  <si>
+    <t>VEC-009-05-006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,7 +735,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1211,14 +1219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,6 +1995,20 @@
       </c>
       <c r="J33" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
